--- a/Testdata/TC_90.xlsx
+++ b/Testdata/TC_90.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>EDQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqd3lRaLU8Qa8SAoRSjJEOrbyYgx3h9JWy1l2Z1cS39yHwIBrFyjqGEjapnWAokGAxn5IC9cJ2v8SmLLz1L/QMzN75cXmum5gAwwMhHNuc+bMmXO+WYzQexdDRzkjHrNdeqWgr2kFhVDTtWx6fKUQ+IOivl54z0DbFyZxrmIPD4kPwgpoUbZ1wewrhRPfH22p6vn5+dp5ec31jtWSpunqjb1O1zwhQ1y0KfMxNUkh1rJerVUwUNMa7hEfW9jHUvNKod1trzWJbbaAtocpPibeWiNgNiWMbVPf9m3CuKZHsE+arb0P5cKM0tr6mo7UGXoi2Qhsx5JyGUlJD+VgWtKzh8QoaXqtqJeK2kZP17bKta1KeW1Dq34UKcaCqIOZ3yXemW0KQtfHw5FQ10vahq6Va5UyUucKga0kAAY6cKxDcmYzYjWJ47BcEVHDDaybPqw6XzA1pKZ0Q0Ov78Kuh0cnPdt3SF71HdcjJgTqtebeJ+cHXhi/3qgD3N6J7fnjFh7ntnWNEe9gxKORT9VALZf6dYd4/rURbCqxYM+BYfheQJC6gJkotWxmwm+bBsQyBthhaaUME113vVM2wibZhwOrchvn1HGxBZnl28y3zWTSGQa66rkjsAiTN1zH2gGrofAcRmy5TSHEfNqG654m3s1jIpEDIhtgT4fYj8Rn6Kh74p4fUGfcDfrM9Ow+sVqNSHouD/GTF2o3A+a7Q/AiISFJS1HG8B+ctGkyahHTHmLnqgNBZAac0SwB1QPfHdh+03WCIWWRT1NUdB1W1CMX8QrjMTqAzaU86C5t0ykrc3lZjUP3PNrCWboIQopcZ2a8I7OcaekW0MLkmGWIHeGr3LEdaATpvUhRs1nRPSHEn5sSkoN4zdvhrcVojPeDYR+OVx/O2JmYlSE14SPIU8h18MvQoF0Uxb+epm2Jf+BHzEbb1FosFzERTJeay9CBN0VCsCan4WB6CtTrtn+yX4/WMoeDZAQWys/yEJzckYPHghxHKU1DbWo6gUVkQWjTgUhR7pvcpoVsNEPqwBk3EKbj3ngEBZjZWz78uFKAlrzFfA+afsEw3YD63phXDqSGoq/SYUGfigmws7TOwCO/DABrjHcCajZda/nZLBmda9T2l/fQDTxZDpdXEdHjlTFgLcJrjCj6S+ubedbEvFziQ0qGLrXN5aMNQebeW6+xEBadqqU1iDxfS8s70Ndl2+NnfWk1D4AiNLpc09QZc01bJGt4PKyUvrrgyLTIAAcOgDQfWuxxXKmnyajOTqdl0iR0zXOiCmhwCMwAA5vWcM0E8MBx3prpDjlBBeh5vYvUtDxHQCbZpscdTI8DwBhxXZmmx/WX98eehynjy4khxVQpni+EojoloY6RLklInWKiHhmOXA87exANeyfMtRAkAf7Yw/5JOIJ+5hAziqyaqMZaWXcib18lJjqT9J2f8rA2ThGFEM9MCbETmYSGeF3eg7PoNLFj9z1ZSqP+PY8Hu5Qgwqjo8sXlRIdR4OGaBS33AzLm2DsZhHSRp3rEkFnLq6fRPazUSlVtYx3gDB8jseIPsRMQpW5ZxFJsqrSpBVDHA8gj4xHu6stF00JoJyrbYpI6eJKlZAUAPhzb0BVmBWNOomAcEew545SgXETHNUHuxcO7z558Nvni88mdP09ufSdXIFmoh/sOEdP3GrWaVq5AvsQkxIOkClxrBaYvaEdHAs7GYxRev8Sgud1u7nYaohjExEhd9gOV3+zGbpAMu9JlMZHYGjXaUSli9KLiEo4z3FR/MfhN64xkpdP8RYoyFs+//evzb/+2UDsMWAKU9M1aRVxlX4Gj4Hq+PiMX46hOpoDzC26lqFWLpVJKeEoGHcrqHcepbRllXdvUSuuaHhdiK87ReULTrNBSDx+rU3qS1JTYJk6B9DhiijTvEebHbJn4qYEM4uXff/3i0ScZqTC6ISVrBZwTGIRPpkYDYXr/sKd0D64dNreV3naX50nCS8lJ4y8RDmePT08mqSgNsPMzBTozdCKlANeZguIOFILNE2UM5y516jLJNo8qJ3pNk9Ne7npuMJI7klJIqHMk49oxV2NOZRE8Ec+ZEpOw5ohLXyf//GaeQriQVoJGjc4Hh8qQxnkpaCjDkaQUPzy1n/7r2ZPblw8e/XD77uTjx5N7Dyf3vrh8dD9jKpwwvtxDwsOxSg/j/IfaFzaQKQq63hVRPdVuphpGSOTXoauuTX1mlMriJhSOEKjq3Jr4P2oPoYcJwyJwQJ+ioPcx277wwxNu7CM1SwA/Rxjap5vcIGOCLOZJgH/44+eXv//m8sHjF7e/mtz5cnL3wfNv//Ti64fy+F1+8vjy3tdhuZ/uCMIXfi+VUE4RXzlMhR9LhTdj5ftbv1Oo6yuAIZRAlKbvb32aMsYdFWgjsQzALHYk68KMaFqZ6ykpV2IfMnqxiuzoTd7LyrFE2M3ckW0mk3xU5Kb4ARSMn7R7xYARxQV49FNYSVY4UV5WL1SRvfXqhlbSSyFXesOX0McsFfpdx+1jR4kY4jPClEhG6+UKiayYb7dz0Kh3EhHpxIFnEY+nofyBIozIe0ubRaMo1VIU4AKSMwOHf/mZEZtlxZZT9UwNv6AMADlBOOd/cMhIoGbgeRIH0fDTezcYAbqNPrQt5ouPjylAuy/BZxriJuN2K8uHcYoLHTHL5gTBFzUqZMl61Wb8a43Ep/s8NMkQeJkPlhCO8Ou6hFxnNmyJyuvOtue53tzik3AisT2AxlBR1CTisYzYUwmjrWSvIkJU8N4UnK5WM3B61z3zlUNyRihA5aLSwxfKzzlStmGZ0AzhJ1zgyDx0vazm2wG2L+//e/L0D5f3/zH5+C/F51/+ZnLn4X++++zZk6+ePX0qqSv8/abw92ZtOfyt6z8O/tY3lsDfUmiFv1f4+23C34d7jQX4O+K8FH/z4vb4t5Mnv/ofYbe+GHbrN1ONZRZ265UV7F7B7ncKdusr2P2uwO6p4vMWw+4NfSHsfhW4fhsh9AosvymwXNWWBMulHwks15YBy7UVWF6B5RVYnguWS4vBculmqh3MguX11TfqFVh+t8ByaQWW3xWwPFV8/i9gWU0ei8R10W0Rh/i5n0dH2nvu2Wvrwt7nVW2zA8cKg5nvvUsclsRA+o04T5S8ztQ9DyAUf1Sa+1F3x6an7XyrN4hZq2zUBgMdMLzV38TrlYG5iWuDqm6afQKwXhrlz5+4iSHgbP54KN8kkHxZ9eR11yGmxzmtyQALRf4YCiIVvhDfsT3m3+BtMvwlKUcx5Uji5htGuSrR8Q1JODLCP2AAATVtXc24GRUUX/79gOt07KGd84WUFlWdrBHY99FIAsu8OwgNb59cAOxNWYBS3f8FNDP5jjCPNXmMoMLH+vztLrOPT/y8jmkljWyYZrlYJf1SsVKubhZr66VKcWDqmGyW1vVqrcJf/obGoZ7Z5DznJGq0Ycnf9Rj/BcFtQOMQNAAA</t>
+          <t>EHkAAB+LCAAAAAAAAAPtnVtvG8cVgP/Kgk8tUGovvIhUxxtIpKQQoS4Q6djKi7HcHUpbLXfZvUjim/sQGHDtAkUdA0nbtA5QNAjQ2A9p4TpB+18CU3ae+hd6ZmavvNhcxXBoYQwB5pzL3OecbxcDLHrvfGAJp9j1TMe+VpBXpIKAbd0xTPvoWiHw+0W5WnhPRZvnOrb2NVcbYB+MBfCyvbVzz7xWOPb94Zoonp2drZyVVhz3SFQkSRZv7rQ7+jEeaEXT9nzN1nEh9jJe71VQUcMY7GBfMzRfY57XCq1Oa6WBTb0Jsh3N1o6wu7IReKaNPW/T9k3fxB7xdLHm40Zz50M2MFVZqa7ISJySJ5YbgWkZzC5jyeShHTSLu+YAq4qkSEWpVlSkrlxdK1fW5PqKXKl8FDnGhqiteX4Hu6emTgUdXxsMqbtUUyS5Wq7IdSTONIK6kglQ0Z5lHOBT08NGA1uWl2tGxHAB13UfRp1vMiUkpnzDii7fhW1XGx53Td/Ced23HBfrMFGXansXn+254fx1h23Qdo9N1x81tVHuuq572N0bktnI56qipmP76xZ2/etDWFRswJqDQvXdACNxjjJxapqeDr9NO8CG2tcsL+2UUaIbjnviDTUd78KBFUkdZ7blaAbsLN/0fFNPGp1SoH3XGUKN0PiGYxlbUGtoPEMR19yyYYpJsxuOc5L0bpYS0T1AdwOs6UDzI/MpOeocO2d7tjXqBD1Pd80eNpobkfVMHSInL/RuBJ7vDKAXiQgxWUoygn9w0ibFqIl1c6BZ+xZMoqeWoJaMAK0HvtM3/YZjBQPbi/o0IUU3YERdfB6PMC6jPVhcm0y6Y7fsiVpm6rIeB85ZtITTcjoJKfG6p8crMq2ZtG6CLNwc0wq6ImSUW6YFiSC9Filpdld0jjH2Z24JpkEk5m2R1KJujHaDQQ+OVw/O2Clt1UNiokewT2GvQ79UCdJFkf51JWmN/kE/YjXatI35dpESQXOptlQZdBMiBGOyNizNPgHpDdM/3l2PxjJDg9gMzLWf1iE4uUNLG1FxPEtpGWrZuhUYmAWElt2nW5T0jS3TXDWaErXhjKtIs0fd0RACsGeu+fDjWgFS8prnu5D0C6ruBLbvjkjkQGJo+jofL+jZtAHNWtin7+JfB8Aao63A1huOsXhrBpud67bpL95DJ3BZOFzchc4eiYyB18QkxtCgv7C/nmdMnpvLfGDjgWOb+uKzDZNMem9cYiBedKoW9sDsfC1sb0FeZ2mPnPWF3VwARUh0uZpZ9zxHN+lmDY+HkfIX5xyZJu5rgQWQ5kOKPYoj9aQYrXsnkzZpEbruWlEEVAkCe8DAujFY0QEeCOet6M6ACERAzxsdJKbtCQHpeNM+amv2UQCMEceVSXkcf0l+7Lqa7ZHhxEgxEYpnG6EoTjHUUdMhCYkTStTFg6HjatYOzIa5Fe61EJKAP3Y0/zgsQT6zsB7NrJi4xl7Z7kS9fZ0ZzUys7+SUh7FxQkiNyM5kiJ3YJDJE4vIOnEWroVlmz2WhNMrfs3SwSgkRRkGXDC4nHUYTD49ZkHI/wCPC3kkhlNN9KkcKtmtJ9FQ7B+WaUpEqFcAZUkZ0xNvOqS8A+GIAQ6EodLVz4ZdCyzbMU9MINAt+wo6DkbHpCRc5l2faB21FQZ12YR36mZVkDQAujkzIGdOGsSZxUA+x5lqjlCEbYtvRwe7iwX/Hz/508eBf44//Vnzx5e/Gdx/977vPnj/96vmzZ0zKxsisUVfrWZj2qLtRq0mlMmywWITIrIoUhI1A96ns8JDyb1xG4fMaLTQ2W43t9gaNHrEwcmcJRCSPgiMnSIodNgraEF1LMdoCzETtRtEoLGe0qYSkkkezU5y1TuvnObK5ePHt3198+4+53uGEJWQl1+u1oqy8Frzg8VaesovBq52J+MS4XJQqRUVJGU/YoAMW7uN5ahlqSZbqkrwqyXHkNuJdPMtoUhXW1NWOxAk/JmowGIq3QLocKenO72LPj9XsLKQK4R79529fPv4kYxXObijJ1gKdo9BCGhOjAq1696ArdPauHzQ2he5mh+yTRJeyY5W/wjhsPT5QmU1l23DKfyFAKofUJRTg+acgOH0Ba/qxMIKjmDqImc02S8oaumSVk73cdp1gyFYk5ZBIZ1jG4WSmx4xgQ3V0PqeiTqKaYc76Ov73N7McwoE0E3xVD3Y2hIEd70sqQxkNE6X04an99D/Pn94hwe3J78dPf5OpIWwnfgkA+xxOU7oYb3sIeWGimZCgGx06mSfSrVRiCYXksWnfMW3fU+UyfWIKSwhcZVIb/R+1BpDraMV0vkA+IUHva97muR8ebHUXiVkB9HOoQZp1kifNWMBieDKvP/z584s/fnPx8MnLO1+N7345vvfwxbd/efn1I3bqLj55cnH/6zDKTyYC2hfy/MqQT6BvQ3SBnEaBJG3h+9t/EGzHF4A1hIBGpO9vf5qqjHSUUklSMwBc3JFsF6ZM087ET0h1Je5Dxi92YZm/QVJYKbYIk5gzNPWkkY+KpCpy7qjiZ61uMfCw4ABG/RxGkjVOnBf1C11YSt1flRRZCbWsN2QIPc1LTf225fQAIyIFfd0wYZLxerVDYkvb227vbay3ExPWiT3XwC7ZhuwHankRTUbbKyUBLVCeHljkrdCU2bQKRb9SoUsM36701w0S8ma/jMhYoEbguoyC7PC1fCcYAvlGL+Hm6+mLyRTs7jIwTeNvUm41s3oop7SQ/LJqIqB6Go5CFQtNLY+8yWHsukumJimCLvMyE6YjfPPO6ApIErsiiTWbruu4MwNOoonMdgCbIYqIyYzHNiJpkiG2kaxVJIiC3JtC7VV5Lmq/DqiXEZs5IL8pQK5ICwKy8pYAubYIINc4IHNA5oA8E5Dl+YAs30qlg2lArpY4IHNAfqcAWeaAvMyAPBFwlhmQqxlA/lCzAizAOmJDMG3yLjnwII3PYuW5psuBzS8f3Xv+9LPxF5+P7/51fPs7Ts5vipxr5cXIWaq+HXJWqguQMzPi5MzJeZnIuf3BwRxyjjSvJOeLh49/uHNv/PGT8f1H4/tfXDx+8CMRWpmP0MqtVMKYRmiFIzRH6HcLoRWO0MuM0BMBZ4kRml/n4Nc5+HUOfp2DM/e7wNxL8ra6NB+1S/w6B0ftK4XaJY7ay4zaJX6dg1/neLcBmV/n4IDMAfkqAXJ5PiCX+XUODshXCpDLHJCXGZDL/DrHT43N/DoHv87Br3Nwcl5mcl626xyV+Qhd4dc5OEJfKYSucIReZoSu8Osc/DoHZ25+nYMzN2fuq/e2ujoftav8OgdH7SuF2lWO2suM2lV+nYNf53i3AZlf5+CAzAH5KgHy6nxAXuXXOTggXylAXuWAvMyAvMqvc/zU2Myvc/DrHPw6ByfnZSbnZbvOUZuP0DV+nYMj9JVC6BpH6GVG6NpbuM4R/mBf9wlH6DSxhf3cHyaMvHec00v7wtrndW15e5YRTma+L83E05JUkP46I9koeTuz7rrAT+Rzbrk/p9g27ZNWvtGrPdgdpT48f9QrWr+i16uSIpXqSr1UqlWlug4ESSslHx4iVQwAsslne/I1AtSYdU++q3Sg2Uc5a2MTTB1h2clM0QMZBva4jLZM1/NvkkwZ/mKSw1hyyBj6plqqMFK+yQSHavglUTAQ042JmV5H8cVnH/J0rLY5MHN+qkiKglC2EtgGwyGDzLwLCjlvF58DAqdqgGjd+xXkM/ZBrzy1sVMFQT72j+rqBL3c1YmR8z7oyca6nPemAVx2eW/6WUzT+hEdoOR12SpatmceHft511Wp10u4ipWi0tf1YhkKRcjGvaKh9euyJPVLRkUhXzAMK4fsYOKznI2QnGJ68ICR30+c+K6x+n/JtmPqEHkAAA==</t>
         </r>
       </text>
     </comment>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -575,7 +575,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Value Added in Industry</t>
+          <t>Govt Revenue - Tax ; Individual Income</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>LKR mn</t>
+          <t>RMB mn</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -605,20 +605,20 @@
         </is>
       </c>
       <c r="H2" s="3">
-        <v>310902601</v>
+        <v>310901701</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>SR4825076</t>
+          <t>SR4825055</t>
         </is>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="6">
-        <v>31017</v>
+        <v>36130</v>
       </c>
       <c r="M2" s="6">
-        <v>39052</v>
+        <v>40878</v>
       </c>
       <c r="N2" s="7">
         <v>41781</v>
@@ -626,58 +626,68 @@
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="2">
-        <v>271978.25</v>
+        <v>1380.846666666666</v>
       </c>
       <c r="R2" s="2">
-        <v>1904609457.583333</v>
+        <v>168261.067525</v>
       </c>
       <c r="S2" s="2">
-        <v>43641.83151041364</v>
+        <v>410.1963767819018</v>
       </c>
       <c r="T2" s="2">
-        <v>0.035788125054025</v>
+        <v>-0.1689225813856177</v>
       </c>
       <c r="U2" s="2">
-        <v>-0.7011072335070594</v>
+        <v>-0.613381629666371</v>
       </c>
       <c r="V2" s="2">
-        <v>0.1604607409247381</v>
+        <v>0.2970614961703945</v>
       </c>
       <c r="W2" s="2">
-        <v>221016</v>
+        <v>727.63</v>
       </c>
       <c r="X2" s="2">
-        <v>323560</v>
+        <v>2026.83</v>
       </c>
       <c r="Y2" s="2">
-        <v>271668.5</v>
+        <v>1482.71</v>
       </c>
       <c r="Z2" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
+      <c r="AB2" s="8">
+        <v>1667.1</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>2026.83</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>1639.54</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>1598.61</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>1482.71</v>
+      </c>
       <c r="AG2" s="8">
-        <v>323560</v>
+        <v>1235.8</v>
       </c>
       <c r="AH2" s="8">
-        <v>286765</v>
+        <v>1126.49</v>
       </c>
       <c r="AI2" s="8">
-        <v>256572</v>
+        <v>922.91</v>
       </c>
       <c r="AJ2" s="8">
-        <v>221016</v>
+        <v>727.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>Govt Revenue</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -707,20 +717,20 @@
         </is>
       </c>
       <c r="H3" s="3">
-        <v>310901701</v>
+        <v>310901801</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4825071</t>
         </is>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="6">
-        <v>36130</v>
+        <v>18598</v>
       </c>
       <c r="M3" s="6">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="N3" s="7">
         <v>41781</v>
@@ -728,68 +738,70 @@
       <c r="O3" s="4"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="2">
-        <v>1380.846666666666</v>
+        <v>4951998.2</v>
       </c>
       <c r="R3" s="2">
-        <v>168261.067525</v>
+        <v>8870140225312.178</v>
       </c>
       <c r="S3" s="2">
-        <v>410.1963767819018</v>
+        <v>2978278.063799983</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.1689225813856176</v>
+        <v>0.5088159326089573</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.613381629666371</v>
+        <v>-0.4977563153662574</v>
       </c>
       <c r="V3" s="2">
-        <v>0.2970614961703945</v>
+        <v>0.6014295529832752</v>
       </c>
       <c r="W3" s="2">
-        <v>727.63</v>
+        <v>866666</v>
       </c>
       <c r="X3" s="2">
-        <v>2026.83</v>
+        <v>10374001</v>
       </c>
       <c r="Y3" s="2">
-        <v>1482.71</v>
+        <v>4504099</v>
       </c>
       <c r="Z3" s="2">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>866666</v>
+      </c>
       <c r="AB3" s="8">
-        <v>1667.1</v>
+        <v>10374001</v>
       </c>
       <c r="AC3" s="8">
-        <v>2026.83</v>
+        <v>8310151</v>
       </c>
       <c r="AD3" s="8">
-        <v>1639.54</v>
+        <v>6851830</v>
       </c>
       <c r="AE3" s="8">
-        <v>1598.61</v>
+        <v>6133035</v>
       </c>
       <c r="AF3" s="8">
-        <v>1482.71</v>
+        <v>5132178</v>
       </c>
       <c r="AG3" s="8">
-        <v>1235.8</v>
+        <v>3876020</v>
       </c>
       <c r="AH3" s="8">
-        <v>1126.49</v>
+        <v>3164929</v>
       </c>
       <c r="AI3" s="8">
-        <v>922.91</v>
+        <v>2639647</v>
       </c>
       <c r="AJ3" s="8">
-        <v>727.63</v>
+        <v>2171525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue</t>
+          <t>Value Added in Industry</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -805,7 +817,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>LKR mn</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -819,20 +831,20 @@
         </is>
       </c>
       <c r="H4" s="3">
-        <v>310901801</v>
+        <v>310902601</v>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>SR4825071</t>
+          <t>SR4825076</t>
         </is>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="6">
-        <v>18598</v>
+        <v>31017</v>
       </c>
       <c r="M4" s="6">
-        <v>41244</v>
+        <v>39052</v>
       </c>
       <c r="N4" s="7">
         <v>41781</v>
@@ -840,68 +852,833 @@
       <c r="O4" s="4"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2">
+        <v>271978.25</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1904609457.583333</v>
+      </c>
+      <c r="S4" s="2">
+        <v>43641.83151041364</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.035788125054025</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-0.7011072335070612</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.1604607409247381</v>
+      </c>
+      <c r="W4" s="2">
+        <v>221016</v>
+      </c>
+      <c r="X4" s="2">
+        <v>323560</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>271668.5</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8">
+        <v>323560</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>286765</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>256572</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>221016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Govt Revenue - Tax ; Individual Income</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Annual, ending "Dec" of each year</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>NRT SOURCE TEST</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H5" s="3">
+        <v>310901701</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>SR4825055</t>
+        </is>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="6">
+        <v>36130</v>
+      </c>
+      <c r="M5" s="6">
+        <v>40878</v>
+      </c>
+      <c r="N5" s="7">
+        <v>41781</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="2">
+        <v>1380.846666666666</v>
+      </c>
+      <c r="R5" s="2">
+        <v>168261.067525</v>
+      </c>
+      <c r="S5" s="2">
+        <v>410.1963767819018</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-0.1689225813856177</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-0.613381629666371</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.2970614961703945</v>
+      </c>
+      <c r="W5" s="2">
+        <v>727.63</v>
+      </c>
+      <c r="X5" s="2">
+        <v>2026.83</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1482.71</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8">
+        <v>1667.1</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>2026.83</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>1639.54</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>1598.61</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1482.71</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1235.8</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>1126.49</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>922.91</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>727.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Govt Revenue</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Annual, ending "Dec" of each year</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>NRT SOURCE TEST</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H6" s="3">
+        <v>310901801</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>SR4825071</t>
+        </is>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="6">
+        <v>18598</v>
+      </c>
+      <c r="M6" s="6">
+        <v>41244</v>
+      </c>
+      <c r="N6" s="7">
+        <v>41781</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="2">
         <v>4951998.2</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R6" s="2">
         <v>8870140225312.178</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S6" s="2">
         <v>2978278.063799983</v>
       </c>
-      <c r="T4" s="2">
-        <v>0.5088159326089575</v>
-      </c>
-      <c r="U4" s="2">
-        <v>-0.497756315366257</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="T6" s="2">
+        <v>0.5088159326089573</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-0.4977563153662574</v>
+      </c>
+      <c r="V6" s="2">
         <v>0.6014295529832752</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W6" s="2">
         <v>866666</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X6" s="2">
         <v>10374001</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y6" s="2">
         <v>4504099</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z6" s="2">
         <v>10</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA6" s="8">
         <v>866666</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB6" s="8">
         <v>10374001</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC6" s="8">
         <v>8310151</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD6" s="8">
         <v>6851830</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE6" s="8">
         <v>6133035</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF6" s="8">
         <v>5132178</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG6" s="8">
         <v>3876020</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH6" s="8">
         <v>3164929</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI6" s="8">
         <v>2639647</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ6" s="8">
         <v>2171525</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Value Added in Industry</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Annual, ending "Dec" of each year</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>LKR mn</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>NRT SOURCE TEST</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H7" s="3">
+        <v>310902601</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>SR4825076</t>
+        </is>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="6">
+        <v>31017</v>
+      </c>
+      <c r="M7" s="6">
+        <v>39052</v>
+      </c>
+      <c r="N7" s="7">
+        <v>41781</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="2">
+        <v>271978.25</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1904609457.583333</v>
+      </c>
+      <c r="S7" s="2">
+        <v>43641.83151041364</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.035788125054025</v>
+      </c>
+      <c r="U7" s="2">
+        <v>-0.7011072335070612</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.1604607409247381</v>
+      </c>
+      <c r="W7" s="2">
+        <v>221016</v>
+      </c>
+      <c r="X7" s="2">
+        <v>323560</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>271668.5</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8">
+        <v>323560</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>286765</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>256572</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>221016</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Govt Revenue - Tax ; Individual Income</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Annual, ending "Dec" of each year</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>NRT SOURCE TEST</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H8" s="3">
+        <v>310901701</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>SR4825055</t>
+        </is>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6">
+        <v>36130</v>
+      </c>
+      <c r="M8" s="6">
+        <v>40878</v>
+      </c>
+      <c r="N8" s="7">
+        <v>41781</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="2">
+        <v>1380.846666666666</v>
+      </c>
+      <c r="R8" s="2">
+        <v>168261.067525</v>
+      </c>
+      <c r="S8" s="2">
+        <v>410.1963767819018</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-0.1689225813856177</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-0.613381629666371</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.2970614961703945</v>
+      </c>
+      <c r="W8" s="2">
+        <v>727.63</v>
+      </c>
+      <c r="X8" s="2">
+        <v>2026.83</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1482.71</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8">
+        <v>1667.1</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>2026.83</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>1639.54</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>1598.61</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>1482.71</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>1235.8</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>1126.49</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>922.91</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>727.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Govt Revenue</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Annual, ending "Dec" of each year</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>NRT SOURCE TEST</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H9" s="3">
+        <v>310901801</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>SR4825071</t>
+        </is>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="6">
+        <v>18598</v>
+      </c>
+      <c r="M9" s="6">
+        <v>41244</v>
+      </c>
+      <c r="N9" s="7">
+        <v>41781</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2">
+        <v>4951998.2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>8870140225312.178</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2978278.063799983</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.5088159326089573</v>
+      </c>
+      <c r="U9" s="2">
+        <v>-0.4977563153662574</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.6014295529832752</v>
+      </c>
+      <c r="W9" s="2">
+        <v>866666</v>
+      </c>
+      <c r="X9" s="2">
+        <v>10374001</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>4504099</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>866666</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>10374001</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>8310151</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>6851830</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>6133035</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>5132178</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>3876020</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>3164929</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>2639647</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>2171525</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Value Added in Industry</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Annual, ending "Dec" of each year</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>LKR mn</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>NRT SOURCE TEST</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H10" s="3">
+        <v>310902601</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>SR4825076</t>
+        </is>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="6">
+        <v>31017</v>
+      </c>
+      <c r="M10" s="6">
+        <v>39052</v>
+      </c>
+      <c r="N10" s="7">
+        <v>41781</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2">
+        <v>271978.25</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1904609457.583333</v>
+      </c>
+      <c r="S10" s="2">
+        <v>43641.83151041364</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.035788125054025</v>
+      </c>
+      <c r="U10" s="2">
+        <v>-0.7011072335070612</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.1604607409247381</v>
+      </c>
+      <c r="W10" s="2">
+        <v>221016</v>
+      </c>
+      <c r="X10" s="2">
+        <v>323560</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>271668.5</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8">
+        <v>323560</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>286765</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>256572</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>221016</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>3</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>3</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>4</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>4</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>5</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>5</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>3</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>6</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>6</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>4</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>7</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>7</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>5</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>8</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>8</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>6</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>9</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>9</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>7</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>10</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>10</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>8</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD25A9C-F2F7-4B28-B0F4-FDA7BB3A9814}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>